--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,58 +498,178 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Erica Washington</t>
+          <t>Janet Scott</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>stefanie07@example.com</t>
+          <t>deanna94@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>708.321.3242x009</t>
+          <t>557.987.3077x47839</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-917-395-8973x742</t>
+          <t>6462397282</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>North Lisaland</t>
+          <t>Henrymouth</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2013-04-17</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1599 Amanda Plaza Suite 627, East Victoria, PW 17023</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>2024-02-02</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>South Dakota</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lynn Flores</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>charles46@example.org</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>+1-334-410-1697x5063</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+1-813-622-9373</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Jordanville</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>12</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2008-05-25</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>49764 Bryant Square Apt. 902, Porterchester, WV 42140</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>2024-02-04</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Delaware</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2006-07-02</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>62931 Chelsea Shore Suite 104, East George, IL 63484</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>2024-01-31</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>North Carolina</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Frank Castro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>hernandezcrystal@example.com</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>(339)858-7240x786</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>810-714-0034</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>West Jeffrey</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2014-03-23</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>93634 James Lane, Hansenchester, MS 17361</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>2024-02-01</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Wyoming</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>None</t>
         </is>

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Janet Scott</t>
+          <t>Michael Moore</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deanna94@example.org</t>
+          <t>meganmiller@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>557.987.3077x47839</t>
+          <t>2117218641</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6462397282</t>
+          <t>001-626-309-1563x232</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Henrymouth</t>
+          <t>South Lynn</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2011-05-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1599 Amanda Plaza Suite 627, East Victoria, PW 17023</t>
+          <t>01062 Williams Course, Anthonyshire, OH 07395</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lynn Flores</t>
+          <t>Matthew Rodriguez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>charles46@example.org</t>
+          <t>moorekatherine@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-334-410-1697x5063</t>
+          <t>+1-819-425-9089</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-813-622-9373</t>
+          <t>674.777.9769x76917</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jordanville</t>
+          <t>Port Catherine</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2006-07-02</t>
+          <t>2011-02-14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62931 Chelsea Shore Suite 104, East George, IL 63484</t>
+          <t>4926 Martinez Junctions Suite 388, Russellport, WY 77554</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Frank Castro</t>
+          <t>Jason Dorsey</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hernandezcrystal@example.com</t>
+          <t>petersonalison@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(339)858-7240x786</t>
+          <t>(874)417-1651x588</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>810-714-0034</t>
+          <t>378.456.0924x1480</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Jeffrey</t>
+          <t>West Meganborough</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
+          <t>2009-03-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>93634 James Lane, Hansenchester, MS 17361</t>
+          <t>5716 Dalton Inlet Apt. 964, Blankenshipmouth, UT 13316</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Janet Scott</t>
+          <t>Ariel Zamora</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deanna94@example.org</t>
+          <t>andersonbrandon@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>557.987.3077x47839</t>
+          <t>(243)298-7477</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6462397282</t>
+          <t>(325)281-7344</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Henrymouth</t>
+          <t>Joneschester</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-04-17</t>
+          <t>2013-12-23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1599 Amanda Plaza Suite 627, East Victoria, PW 17023</t>
+          <t>70478 Tammy Cliffs, Port Michael, WY 36450</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lynn Flores</t>
+          <t>Richard Ritter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>charles46@example.org</t>
+          <t>tyler86@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-334-410-1697x5063</t>
+          <t>385.603.6330</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-813-622-9373</t>
+          <t>983-746-8716</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jordanville</t>
+          <t>South Victoria</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2006-07-02</t>
+          <t>2008-06-28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>62931 Chelsea Shore Suite 104, East George, IL 63484</t>
+          <t>320 Sarah Wall Apt. 414, North Nathaniel, PW 84576</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-01-30</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>North Carolina</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Frank Castro</t>
+          <t>Jocelyn Cruz</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hernandezcrystal@example.com</t>
+          <t>dlamb@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(339)858-7240x786</t>
+          <t>001-775-722-7502</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>810-714-0034</t>
+          <t>405-868-1159</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Jeffrey</t>
+          <t>New Rhonda</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2014-03-23</t>
+          <t>2009-11-23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>93634 James Lane, Hansenchester, MS 17361</t>
+          <t>8238 Matthew Rue Apt. 118, Lake Sandra, MD 41369</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Michael Moore</t>
+          <t>Daniel Walker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>meganmiller@example.net</t>
+          <t>xkeller@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2117218641</t>
+          <t>(243)332-2634x8236</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-626-309-1563x232</t>
+          <t>668.747.2580x8802</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>South Lynn</t>
+          <t>Lake Michaelstad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2011-05-06</t>
+          <t>2012-03-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>01062 Williams Course, Anthonyshire, OH 07395</t>
+          <t>777 Kelly Forges Apt. 952, East Kristina, AS 43760</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-27</t>
+          <t>2024-04-20</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Matthew Rodriguez</t>
+          <t>Earl Hernandez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>moorekatherine@example.com</t>
+          <t>ericwilliams@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-819-425-9089</t>
+          <t>392-812-3952x70227</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>674.777.9769x76917</t>
+          <t>694-211-5445x88834</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Catherine</t>
+          <t>Jacksonside</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2011-02-14</t>
+          <t>2006-11-27</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>4926 Martinez Junctions Suite 388, Russellport, WY 77554</t>
+          <t>26173 Virginia Spring, Ernesttown, NV 77022</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jason Dorsey</t>
+          <t>Alison Hunt</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>petersonalison@example.net</t>
+          <t>raymond33@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(874)417-1651x588</t>
+          <t>5896174335</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>378.456.0924x1480</t>
+          <t>(895)777-7184</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Meganborough</t>
+          <t>East David</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2009-03-05</t>
+          <t>2012-07-26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5716 Dalton Inlet Apt. 964, Blankenshipmouth, UT 13316</t>
+          <t>7647 Marsh Trafficway, East Whitney, AK 40002</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-03-09</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Arizona</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ariel Zamora</t>
+          <t>Laura Simpson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>andersonbrandon@example.org</t>
+          <t>christopher28@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(243)298-7477</t>
+          <t>001-760-739-1873x55567</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(325)281-7344</t>
+          <t>207.760.4485</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Joneschester</t>
+          <t>South Lindaborough</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-12-23</t>
+          <t>2014-01-19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>70478 Tammy Cliffs, Port Michael, WY 36450</t>
+          <t>4257 Jacob View, New Linda, MO 89128</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-04</t>
+          <t>2024-04-09</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>North Dakota</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Richard Ritter</t>
+          <t>Jessica Ponce</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tyler86@example.com</t>
+          <t>michael50@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>385.603.6330</t>
+          <t>987-900-2092</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>983-746-8716</t>
+          <t>001-335-482-0404</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>South Victoria</t>
+          <t>Bradport</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2008-06-28</t>
+          <t>2012-05-20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>320 Sarah Wall Apt. 414, North Nathaniel, PW 84576</t>
+          <t>49415 Stephanie Summit, Greeneton, MP 21711</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jocelyn Cruz</t>
+          <t>Jimmy Berry</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dlamb@example.net</t>
+          <t>david29@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001-775-722-7502</t>
+          <t>(562)448-9505x5352</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>405-868-1159</t>
+          <t>9616770459</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>New Rhonda</t>
+          <t>Brianshire</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2009-11-23</t>
+          <t>2011-06-24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8238 Matthew Rue Apt. 118, Lake Sandra, MD 41369</t>
+          <t>495 Lee Tunnel Suite 376, Cummingsview, KY 12545</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Daniel Walker</t>
+          <t>Dawn Graham</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xkeller@example.com</t>
+          <t>joshuajohnson@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(243)332-2634x8236</t>
+          <t>920.705.7942</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>668.747.2580x8802</t>
+          <t>001-265-957-1251</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Lake Michaelstad</t>
+          <t>Douglasborough</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-03-25</t>
+          <t>2010-06-28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>777 Kelly Forges Apt. 952, East Kristina, AS 43760</t>
+          <t>87483 Holland Drive, Cassidymouth, NY 63785</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-20</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Earl Hernandez</t>
+          <t>Kristen Strong</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ericwilliams@example.net</t>
+          <t>ulopez@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>392-812-3952x70227</t>
+          <t>7539546868</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>694-211-5445x88834</t>
+          <t>001-496-377-1335x52089</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jacksonside</t>
+          <t>Joseview</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2006-11-27</t>
+          <t>2009-11-11</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>26173 Virginia Spring, Ernesttown, NV 77022</t>
+          <t>5046 Nichols Ferry, North Carolside, CT 58741</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-11</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Alison Hunt</t>
+          <t>Mary Wright</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>raymond33@example.org</t>
+          <t>darren39@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5896174335</t>
+          <t>001-221-843-1881x0542</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(895)777-7184</t>
+          <t>691-233-9377</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>East David</t>
+          <t>West Cody</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-07-26</t>
+          <t>2005-06-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7647 Marsh Trafficway, East Whitney, AK 40002</t>
+          <t>250 Roberts Crescent, North David, OK 92706</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Dawn Graham</t>
+          <t>Annette Rodriguez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>joshuajohnson@example.net</t>
+          <t>tblackwell@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>920.705.7942</t>
+          <t>001-925-243-0247x700</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-265-957-1251</t>
+          <t>(232)649-8895</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Douglasborough</t>
+          <t>Laurenmouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2010-06-28</t>
+          <t>2010-11-20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>87483 Holland Drive, Cassidymouth, NY 63785</t>
+          <t>218 Brewer Center, East Frank, SC 85938</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kristen Strong</t>
+          <t>Sabrina Gutierrez MD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ulopez@example.org</t>
+          <t>millerjeffrey@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7539546868</t>
+          <t>822.751.2549x54972</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001-496-377-1335x52089</t>
+          <t>496.446.8763</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Joseview</t>
+          <t>Latashaton</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-11-11</t>
+          <t>2014-04-13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5046 Nichols Ferry, North Carolside, CT 58741</t>
+          <t>74518 Vicki Harbor Apt. 768, Brownmouth, AK 28731</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-11</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Mary Wright</t>
+          <t>Michael Quinn</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>darren39@example.com</t>
+          <t>cynthiaadams@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001-221-843-1881x0542</t>
+          <t>+1-712-950-4488x2553</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>691-233-9377</t>
+          <t>7447093189</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Cody</t>
+          <t>Stephenborough</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2005-06-14</t>
+          <t>2012-11-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>250 Roberts Crescent, North David, OK 92706</t>
+          <t>9096 Jackson Station Apt. 037, South Kaitlynchester, VT 82785</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-01-04</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Laura Simpson</t>
+          <t>John Parker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>christopher28@example.org</t>
+          <t>xwilliams@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-760-739-1873x55567</t>
+          <t>280-474-7458</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>207.760.4485</t>
+          <t>001-286-289-7855x045</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>South Lindaborough</t>
+          <t>Adamland</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2014-01-19</t>
+          <t>2009-05-24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>4257 Jacob View, New Linda, MO 89128</t>
+          <t>PSC 9901, Box 0746, APO AA 05947</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-09</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>North Dakota</t>
+          <t>California</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jessica Ponce</t>
+          <t>Ryan Alvarado</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>michael50@example.org</t>
+          <t>timothy12@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>987-900-2092</t>
+          <t>577-783-4114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001-335-482-0404</t>
+          <t>403-780-9249x50374</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bradport</t>
+          <t>Maynardmouth</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2012-05-20</t>
+          <t>2013-03-13</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>49415 Stephanie Summit, Greeneton, MP 21711</t>
+          <t>98366 April Forges Apt. 689, Hobbsside, WI 85643</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-04</t>
+          <t>2024-02-24</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jimmy Berry</t>
+          <t>Tony Hamilton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>david29@example.org</t>
+          <t>benjamin46@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(562)448-9505x5352</t>
+          <t>876-792-1131x34692</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9616770459</t>
+          <t>992-683-8527x6833</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Brianshire</t>
+          <t>New Andrewport</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2011-06-24</t>
+          <t>2006-11-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>495 Lee Tunnel Suite 376, Cummingsview, KY 12545</t>
+          <t>260 Barbara Hollow Apt. 273, Christopherchester, MI 15888</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>West Virginia</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>John Parker</t>
+          <t>Gary Mcdonald</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>xwilliams@example.org</t>
+          <t>jerome86@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>280-474-7458</t>
+          <t>337-710-1847x99551</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-286-289-7855x045</t>
+          <t>(507)534-1695x069</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Adamland</t>
+          <t>Port Dennisland</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2009-05-24</t>
+          <t>2011-09-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PSC 9901, Box 0746, APO AA 05947</t>
+          <t>25583 Hudson Turnpike, Jessicaville, AS 93428</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-17</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ryan Alvarado</t>
+          <t>Dustin Romero</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>timothy12@example.org</t>
+          <t>chad14@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>577-783-4114</t>
+          <t>+1-946-287-6139</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>403-780-9249x50374</t>
+          <t>3522646896</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Maynardmouth</t>
+          <t>Sarahfort</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2013-03-13</t>
+          <t>2009-07-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>98366 April Forges Apt. 689, Hobbsside, WI 85643</t>
+          <t>3442 Michelle Road Suite 157, New Jason, CA 02613</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tony Hamilton</t>
+          <t>Eric Davis</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>benjamin46@example.net</t>
+          <t>kevinzimmerman@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>876-792-1131x34692</t>
+          <t>320.802.5936x42106</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>992-683-8527x6833</t>
+          <t>001-325-264-9588x04421</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>New Andrewport</t>
+          <t>East Timothyshire</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-11-20</t>
+          <t>2012-09-21</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>260 Barbara Hollow Apt. 273, Christopherchester, MI 15888</t>
+          <t>303 Haynes Ramp, East Eric, MH 27940</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Gary Mcdonald</t>
+          <t>Jose Cabrera</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jerome86@example.com</t>
+          <t>danielclarke@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>337-710-1847x99551</t>
+          <t>932.288.0232x120</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(507)534-1695x069</t>
+          <t>(718)990-7873</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Port Dennisland</t>
+          <t>West Bethany</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2011-09-06</t>
+          <t>2009-08-27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>25583 Hudson Turnpike, Jessicaville, AS 93428</t>
+          <t>65244 Shawn Track Suite 271, East Heather, WY 24520</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-04-07</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dustin Romero</t>
+          <t>Kevin Williams</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>chad14@example.net</t>
+          <t>tanyawilliams@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-946-287-6139</t>
+          <t>001-990-846-4103</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3522646896</t>
+          <t>639-499-3928</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sarahfort</t>
+          <t>Smithhaven</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-07-09</t>
+          <t>2005-11-16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3442 Michelle Road Suite 157, New Jason, CA 02613</t>
+          <t>346 Miller Lake, Lake Melindaview, RI 31381</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eric Davis</t>
+          <t>Willie Carrillo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kevinzimmerman@example.net</t>
+          <t>tara48@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>320.802.5936x42106</t>
+          <t>(257)373-1035x52503</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001-325-264-9588x04421</t>
+          <t>(885)821-3663x666</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>East Timothyshire</t>
+          <t>Goodbury</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-09-21</t>
+          <t>2013-09-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>303 Haynes Ramp, East Eric, MH 27940</t>
+          <t>53573 Jennifer Mountains Suite 863, West Jamesstad, GU 37693</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-04-06</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jose Cabrera</t>
+          <t>Lisa Nelson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>danielclarke@example.net</t>
+          <t>adavid@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>932.288.0232x120</t>
+          <t>576.401.4886x19875</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(718)990-7873</t>
+          <t>001-916-691-1097x861</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>West Bethany</t>
+          <t>Dixonbury</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2009-08-27</t>
+          <t>2014-03-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>65244 Shawn Track Suite 271, East Heather, WY 24520</t>
+          <t>89327 Monica Trace, Brittanybury, LA 90305</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kevin Williams</t>
+          <t>Melinda Francis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>tanyawilliams@example.org</t>
+          <t>erica43@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-990-846-4103</t>
+          <t>001-581-310-6886</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>639-499-3928</t>
+          <t>3393068853</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Smithhaven</t>
+          <t>Boothside</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2005-11-16</t>
+          <t>2009-07-20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>346 Miller Lake, Lake Melindaview, RI 31381</t>
+          <t>574 Peter Station, Craigland, WV 20425</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-02-01</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>California</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Willie Carrillo</t>
+          <t>Thomas Hernandez</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tara48@example.org</t>
+          <t>john73@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(257)373-1035x52503</t>
+          <t>+1-789-879-1915</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(885)821-3663x666</t>
+          <t>(670)594-5552</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Goodbury</t>
+          <t>Shirleyville</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-09-20</t>
+          <t>2011-04-25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>53573 Jennifer Mountains Suite 863, West Jamesstad, GU 37693</t>
+          <t>5832 Michelle Shore, Pottsborough, MS 64381</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-04-06</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lisa Nelson</t>
+          <t>Mr. Patrick Haley</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adavid@example.net</t>
+          <t>dflowers@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>576.401.4886x19875</t>
+          <t>448-411-1031</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-916-691-1097x861</t>
+          <t>668.970.2358</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Dixonbury</t>
+          <t>Yatesstad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2014-03-11</t>
+          <t>2011-12-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>89327 Monica Trace, Brittanybury, LA 90305</t>
+          <t>244 William Park, Lewisbury, IA 47452</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-02-23</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Melinda Francis</t>
+          <t>Courtney Bell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>erica43@example.com</t>
+          <t>savannah76@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-581-310-6886</t>
+          <t>(770)222-9035x109</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3393068853</t>
+          <t>(590)310-2282x38744</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boothside</t>
+          <t>Lake Karen</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-07-20</t>
+          <t>2012-11-21</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>574 Peter Station, Craigland, WV 20425</t>
+          <t>659 Richardson Flats, Chandlerberg, WA 60450</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Thomas Hernandez</t>
+          <t>Katherine Cook</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>john73@example.org</t>
+          <t>steven37@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-789-879-1915</t>
+          <t>476.368.9857x7100</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(670)594-5552</t>
+          <t>707.234.8343x4650</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Shirleyville</t>
+          <t>Youngshire</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2011-04-25</t>
+          <t>2012-12-15</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5832 Michelle Shore, Pottsborough, MS 64381</t>
+          <t>2471 Moreno Square, South Hannahchester, WV 16953</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-04-05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,27 +498,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Mr. Patrick Haley</t>
+          <t>Stephanie Goodman</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dflowers@example.net</t>
+          <t>fnelson@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>448-411-1031</t>
+          <t>649.382.1244</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>668.970.2358</t>
+          <t>001-906-595-6196x7402</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Yatesstad</t>
+          <t>North Nicholas</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2011-12-09</t>
+          <t>2007-06-12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>244 William Park, Lewisbury, IA 47452</t>
+          <t>82481 Mejia Lane Suite 181, Lucasside, MI 28778</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-01-26</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Courtney Bell</t>
+          <t>Jesse Moran</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>savannah76@example.org</t>
+          <t>adixon@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(770)222-9035x109</t>
+          <t>958.985.6346</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(590)310-2282x38744</t>
+          <t>+1-737-283-2987</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lake Karen</t>
+          <t>South John</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2012-11-21</t>
+          <t>2013-03-17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>659 Richardson Flats, Chandlerberg, WA 60450</t>
+          <t>67457 Smith Forge, Lake Jeffrey, TN 41350</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Michigan</t>
+          <t>Tennessee</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Katherine Cook</t>
+          <t>Aaron Thompson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>steven37@example.org</t>
+          <t>kmoreno@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>476.368.9857x7100</t>
+          <t>(277)948-3730</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>707.234.8343x4650</t>
+          <t>602.544.8982x72351</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Youngshire</t>
+          <t>Lake Jacquelineside</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-12-15</t>
+          <t>2014-01-30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2471 Moreno Square, South Hannahchester, WV 16953</t>
+          <t>31823 Kaitlyn Junctions Suite 599, Kristenborough, WI 93703</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-04-05</t>
+          <t>2024-01-21</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nevada</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Stephanie Goodman</t>
+          <t>Brooke Brooks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fnelson@example.com</t>
+          <t>ambergraham@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>649.382.1244</t>
+          <t>001-380-299-1506x12537</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>001-906-595-6196x7402</t>
+          <t>706-906-7113</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>North Nicholas</t>
+          <t>New Michael</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2007-06-12</t>
+          <t>2009-07-25</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>82481 Mejia Lane Suite 181, Lucasside, MI 28778</t>
+          <t>43442 Gordon Canyon Suite 904, West Heidi, MH 85142</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Arkansas</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jesse Moran</t>
+          <t>Amanda West</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>adixon@example.org</t>
+          <t>smithamy@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>958.985.6346</t>
+          <t>001-647-747-6721x772</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-737-283-2987</t>
+          <t>(415)568-2836x00620</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>South John</t>
+          <t>Lake Jennifermouth</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2013-03-17</t>
+          <t>2007-03-10</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>67457 Smith Forge, Lake Jeffrey, TN 41350</t>
+          <t>PSC 4304, Box 8618, APO AA 07985</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Tennessee</t>
+          <t>Washington</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aaron Thompson</t>
+          <t>Christopher Griffin</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>kmoreno@example.com</t>
+          <t>allensherry@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(277)948-3730</t>
+          <t>(688)344-8249</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>602.544.8982x72351</t>
+          <t>475-853-8931</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lake Jacquelineside</t>
+          <t>Lake Markton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2014-01-30</t>
+          <t>2008-07-02</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31823 Kaitlyn Junctions Suite 599, Kristenborough, WI 93703</t>
+          <t>64454 Poole Shores, Lake Justinburgh, IL 79561</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Indiana</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brooke Brooks</t>
+          <t>Sally Delgado</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ambergraham@example.org</t>
+          <t>robertellis@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-380-299-1506x12537</t>
+          <t>471-450-3271x3146</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>706-906-7113</t>
+          <t>725-538-0885x314</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Michael</t>
+          <t>Rebeccastad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,17 +531,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2009-07-25</t>
+          <t>2006-03-16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>43442 Gordon Canyon Suite 904, West Heidi, MH 85142</t>
+          <t>3280 Velasquez Lodge, Randallstad, SC 51649</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amanda West</t>
+          <t>Frank Marsh</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>smithamy@example.net</t>
+          <t>haydencaitlin@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-647-747-6721x772</t>
+          <t>(663)861-5440</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(415)568-2836x00620</t>
+          <t>747-209-7233</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lake Jennifermouth</t>
+          <t>Hatfieldfurt</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-03-10</t>
+          <t>2005-07-04</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PSC 4304, Box 8618, APO AA 07985</t>
+          <t>6135 Rivera Causeway Apt. 704, Port Julie, AS 40177</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christopher Griffin</t>
+          <t>Brandi Macdonald</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>allensherry@example.net</t>
+          <t>joneskathy@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(688)344-8249</t>
+          <t>+1-673-953-1713x1671</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>475-853-8931</t>
+          <t>001-874-233-6783</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lake Markton</t>
+          <t>West Chad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2008-07-02</t>
+          <t>2008-03-26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>64454 Poole Shores, Lake Justinburgh, IL 79561</t>
+          <t>2512 Smith Vista, Port Chris, VA 34063</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-06</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Montana</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Brooke Brooks</t>
+          <t>Nancy James</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ambergraham@example.org</t>
+          <t>kristenmedina@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-380-299-1506x12537</t>
+          <t>576-382-1355</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>706-906-7113</t>
+          <t>+1-875-541-9705</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Michael</t>
+          <t>Carrilloview</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2009-07-25</t>
+          <t>2012-06-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>43442 Gordon Canyon Suite 904, West Heidi, MH 85142</t>
+          <t>15058 Larson Dale Apt. 289, Lozanoshire, NH 04339</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-02-10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Wisconsin</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Amanda West</t>
+          <t>Carrie Guzman</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>smithamy@example.net</t>
+          <t>mark62@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-647-747-6721x772</t>
+          <t>2114154335</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(415)568-2836x00620</t>
+          <t>001-305-776-9218</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lake Jennifermouth</t>
+          <t>Brandonchester</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-03-10</t>
+          <t>2008-04-07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>PSC 4304, Box 8618, APO AA 07985</t>
+          <t>Unit 4800 Box 0393, DPO AP 53325</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-18</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Washington</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Christopher Griffin</t>
+          <t>Joseph Hamilton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>allensherry@example.net</t>
+          <t>nelsonjeremy@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(688)344-8249</t>
+          <t>+1-570-369-2519</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>475-853-8931</t>
+          <t>+1-272-529-3001</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lake Markton</t>
+          <t>Port Tammy</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2008-07-02</t>
+          <t>2006-08-06</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>64454 Poole Shores, Lake Justinburgh, IL 79561</t>
+          <t>528 Kerry Dam Suite 721, Debbieton, CT 82629</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-01-17</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Indiana</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sally Delgado</t>
+          <t>Amy Mathews MD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>robertellis@example.net</t>
+          <t>fboyd@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>471-450-3271x3146</t>
+          <t>+1-687-590-5597x9036</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>725-538-0885x314</t>
+          <t>621-334-4999</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rebeccastad</t>
+          <t>East Connormouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2006-03-16</t>
+          <t>2012-09-16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3280 Velasquez Lodge, Randallstad, SC 51649</t>
+          <t>81519 Fields Valley, Lindseyland, IA 69068</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-02-20</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Arkansas</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Frank Marsh</t>
+          <t>Sarah Valentine</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>haydencaitlin@example.com</t>
+          <t>natashahatfield@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(663)861-5440</t>
+          <t>001-448-445-7321x2722</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>747-209-7233</t>
+          <t>(888)426-4602</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hatfieldfurt</t>
+          <t>East Michaelville</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2005-07-04</t>
+          <t>2007-10-17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6135 Rivera Causeway Apt. 704, Port Julie, AS 40177</t>
+          <t>57727 Misty Skyway Suite 875, Millerton, TX 05734</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Utah</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brandi Macdonald</t>
+          <t>Brittany Phillips</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>joneskathy@example.net</t>
+          <t>rickysutton@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-673-953-1713x1671</t>
+          <t>362-510-2146x41617</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>001-874-233-6783</t>
+          <t>280-233-3763</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Chad</t>
+          <t>Lake Bethanyton</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2008-03-26</t>
+          <t>2009-01-05</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2512 Smith Vista, Port Chris, VA 34063</t>
+          <t>232 Eddie Lights Suite 969, East Anthony, IL 09796</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-01-05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Montana</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nancy James</t>
+          <t>Debra Ortega</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kristenmedina@example.net</t>
+          <t>ronaldandrews@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>576-382-1355</t>
+          <t>563-311-1405</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-875-541-9705</t>
+          <t>(725)537-3853x18119</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Carrilloview</t>
+          <t>Martinmouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-06-09</t>
+          <t>2005-08-21</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>15058 Larson Dale Apt. 289, Lozanoshire, NH 04339</t>
+          <t>7306 Washington Oval, South Lisafort, IA 35678</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wisconsin</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Carrie Guzman</t>
+          <t>Sheila Martinez</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mark62@example.org</t>
+          <t>amiller@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2114154335</t>
+          <t>2748364984</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>001-305-776-9218</t>
+          <t>831.553.5755x14032</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Brandonchester</t>
+          <t>Holmesshire</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2008-04-07</t>
+          <t>2008-11-12</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Unit 4800 Box 0393, DPO AP 53325</t>
+          <t>5626 Munoz Garden Apt. 772, Riosview, HI 42516</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-12</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Michigan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joseph Hamilton</t>
+          <t>Kelly Horton</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nelsonjeremy@example.com</t>
+          <t>frederick70@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-570-369-2519</t>
+          <t>(632)640-7194</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1-272-529-3001</t>
+          <t>973.513.1882x81974</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Tammy</t>
+          <t>North Dawn</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-08-06</t>
+          <t>2010-02-19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>528 Kerry Dam Suite 721, Debbieton, CT 82629</t>
+          <t>USNV Hunter, FPO AE 97039</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-04-27</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amy Mathews MD</t>
+          <t>Nathan Matthews</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fboyd@example.net</t>
+          <t>christophermartin@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+1-687-590-5597x9036</t>
+          <t>+1-424-855-4134x719</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>621-334-4999</t>
+          <t>001-796-754-2144x06071</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>East Connormouth</t>
+          <t>Martinezmouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-09-16</t>
+          <t>2008-01-06</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>81519 Fields Valley, Lindseyland, IA 69068</t>
+          <t>1072 Golden Stream Apt. 707, Rayberg, NC 83638</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Valentine</t>
+          <t>Maria Blair</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>natashahatfield@example.org</t>
+          <t>william36@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-448-445-7321x2722</t>
+          <t>225-201-8435</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(888)426-4602</t>
+          <t>(634)290-7194</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>East Michaelville</t>
+          <t>New Carrie</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-10-17</t>
+          <t>2009-01-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>57727 Misty Skyway Suite 875, Millerton, TX 05734</t>
+          <t>36365 Caitlin Inlet, Lambertshire, CA 97645</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-04-21</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Arizona</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brittany Phillips</t>
+          <t>John Robinson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rickysutton@example.net</t>
+          <t>iandurham@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>362-510-2146x41617</t>
+          <t>001-275-917-2889x76702</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>280-233-3763</t>
+          <t>984.255.7116x6494</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lake Bethanyton</t>
+          <t>New Wayne</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2009-01-05</t>
+          <t>2012-03-13</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>232 Eddie Lights Suite 969, East Anthony, IL 09796</t>
+          <t>519 Singleton Extensions, Lake Vicki, NV 77496</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amy Mathews MD</t>
+          <t>Martin Espinoza</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fboyd@example.net</t>
+          <t>ricejeffery@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+1-687-590-5597x9036</t>
+          <t>001-907-834-1447x02371</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>621-334-4999</t>
+          <t>001-693-703-0760</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>East Connormouth</t>
+          <t>Jenniferview</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-09-16</t>
+          <t>2013-04-29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>81519 Fields Valley, Lindseyland, IA 69068</t>
+          <t>97223 James Courts, New Nicholasfort, MS 33757</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Massachusetts</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sarah Valentine</t>
+          <t>Stephanie Bird</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>natashahatfield@example.org</t>
+          <t>murraycheryl@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-448-445-7321x2722</t>
+          <t>001-419-877-6866x79011</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(888)426-4602</t>
+          <t>(898)752-2693x186</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>East Michaelville</t>
+          <t>West Wyattmouth</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-10-17</t>
+          <t>2011-11-16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>57727 Misty Skyway Suite 875, Millerton, TX 05734</t>
+          <t>9602 Jenkins Extensions, Douglasport, MI 63299</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-04-04</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Utah</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brittany Phillips</t>
+          <t>Diana Rogers</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rickysutton@example.net</t>
+          <t>jose51@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>362-510-2146x41617</t>
+          <t>617.717.9554x26593</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>280-233-3763</t>
+          <t>384-467-1357x685</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lake Bethanyton</t>
+          <t>Allisonstad</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2009-01-05</t>
+          <t>2006-08-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>232 Eddie Lights Suite 969, East Anthony, IL 09796</t>
+          <t>58430 Richards Mount, Williamfort, PW 27237</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Alexis Thompson</t>
+          <t>Taylor Adams</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>benjaminsimon@example.net</t>
+          <t>hadams@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(743)973-6796x5777</t>
+          <t>001-766-901-6271x513</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-983-668-6859x1980</t>
+          <t>+1-534-427-5125x566</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Travisberg</t>
+          <t>Sarashire</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2007-11-30</t>
+          <t>2013-03-28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>223 James Spring Suite 968, East Thomas, KY 46017</t>
+          <t>56053 Rick Field Suite 102, South Ryanland, CO 31186</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-04-13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>New York</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Mr. Jason Baker</t>
+          <t>Carla Silva</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaredwalker@example.org</t>
+          <t>ndonovan@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>583.847.9158x364</t>
+          <t>853-327-1313</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>600.685.4960x06771</t>
+          <t>415-358-5837x870</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Christopherburgh</t>
+          <t>Donnatown</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-06-22</t>
+          <t>2007-01-01</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>57765 Reed Ways, South Micheleland, WV 39269</t>
+          <t>29758 Wheeler Point, Meganfort, GU 86405</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-01-16</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Florida</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Wendy Mejia</t>
+          <t>Kaitlyn Gill</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>walter64@example.net</t>
+          <t>hlopez@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(378)217-3052x2617</t>
+          <t>624.619.0028</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7826206138</t>
+          <t>(600)935-6095x503</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Carlos</t>
+          <t>Mcclureview</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-12-12</t>
+          <t>2009-09-01</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>USCGC Fields, FPO AA 95918</t>
+          <t>44713 Jade Way, Port Tiffany, AR 79601</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Taylor Adams</t>
+          <t>Desiree Kelley</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>hadams@example.org</t>
+          <t>martineztracy@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-766-901-6271x513</t>
+          <t>(353)432-5098</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-534-427-5125x566</t>
+          <t>(940)697-8465x880</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sarashire</t>
+          <t>Carolland</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-03-28</t>
+          <t>2007-10-23</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>56053 Rick Field Suite 102, South Ryanland, CO 31186</t>
+          <t>07674 Jennifer Inlet Suite 449, Adkinsview, OK 30443</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-13</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Carla Silva</t>
+          <t>Erik Nelson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ndonovan@example.net</t>
+          <t>robert31@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>853-327-1313</t>
+          <t>593.800.7483x79259</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>415-358-5837x870</t>
+          <t>(466)363-4916x80402</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Donnatown</t>
+          <t>Jessicaton</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-01-01</t>
+          <t>2009-11-24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>29758 Wheeler Point, Meganfort, GU 86405</t>
+          <t>347 Delgado Mount, New Julialand, ND 31725</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Florida</t>
+          <t>Virginia</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kaitlyn Gill</t>
+          <t>Micheal Cook</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hlopez@example.org</t>
+          <t>csmith@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>624.619.0028</t>
+          <t>+1-258-304-4677</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(600)935-6095x503</t>
+          <t>8968685770</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mcclureview</t>
+          <t>Port Brianchester</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2009-09-01</t>
+          <t>2011-12-30</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>44713 Jade Way, Port Tiffany, AR 79601</t>
+          <t>2009 Robert Ways, East David, NC 92630</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Desiree Kelley</t>
+          <t>Heather Parker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>martineztracy@example.com</t>
+          <t>wperez@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(353)432-5098</t>
+          <t>473.731.0461x6165</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(940)697-8465x880</t>
+          <t>992.591.2578</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Carolland</t>
+          <t>Gregoryhaven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2007-10-23</t>
+          <t>2012-01-27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>07674 Jennifer Inlet Suite 449, Adkinsview, OK 30443</t>
+          <t>096 Steven Drive, South Danielle, RI 74935</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-03-02</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>South Carolina</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Erik Nelson</t>
+          <t>John Rose</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>robert31@example.com</t>
+          <t>aguilarerin@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>593.800.7483x79259</t>
+          <t>664.864.1419</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(466)363-4916x80402</t>
+          <t>5303648861</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Jessicaton</t>
+          <t>Moranchester</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-11-24</t>
+          <t>2009-08-20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>347 Delgado Mount, New Julialand, ND 31725</t>
+          <t>1378 Michael Walks Suite 495, New Darrenbury, NE 53741</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-03-30</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Pennsylvania</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Micheal Cook</t>
+          <t>Kevin Williams</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>csmith@example.com</t>
+          <t>teresasimpson@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-258-304-4677</t>
+          <t>8864674023</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8968685770</t>
+          <t>677-454-6833x2403</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Brianchester</t>
+          <t>Conwayfort</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2011-12-30</t>
+          <t>2013-02-19</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2009 Robert Ways, East David, NC 92630</t>
+          <t>31720 Schultz Rest, Perezmouth, VI 07882</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-16</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Heather Parker</t>
+          <t>Jessica Morris</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>wperez@example.org</t>
+          <t>olittle@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>473.731.0461x6165</t>
+          <t>(464)889-6160</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>992.591.2578</t>
+          <t>958-518-3946</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gregoryhaven</t>
+          <t>Kristinburgh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-01-27</t>
+          <t>2013-09-18</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>096 Steven Drive, South Danielle, RI 74935</t>
+          <t>422 Alex Knoll, East Kellyburgh, KS 45833</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-04-18</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>South Carolina</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Rose</t>
+          <t>Kristin Munoz</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>aguilarerin@example.org</t>
+          <t>elizabethlove@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>664.864.1419</t>
+          <t>518.881.6529x635</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5303648861</t>
+          <t>584.357.7572</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Moranchester</t>
+          <t>Coxland</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-08-20</t>
+          <t>2007-06-06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1378 Michael Walks Suite 495, New Darrenbury, NE 53741</t>
+          <t>52003 Claudia Ways, South Stephaniehaven, AS 32993</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-01-22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Pennsylvania</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Kevin Williams</t>
+          <t>Brianna Smith</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>teresasimpson@example.org</t>
+          <t>aguilarcynthia@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8864674023</t>
+          <t>(254)234-6134x9990</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>677-454-6833x2403</t>
+          <t>(864)256-7011x1603</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Conwayfort</t>
+          <t>Alexandrafort</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-02-19</t>
+          <t>2012-05-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>31720 Schultz Rest, Perezmouth, VI 07882</t>
+          <t>8393 Yvonne Flats Suite 701, North Rebeccatown, IL 94730</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-05-01</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Connecticut</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jessica Morris</t>
+          <t>Melissa Cuevas</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>olittle@example.net</t>
+          <t>noah72@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(464)889-6160</t>
+          <t>001-667-556-6060x26104</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>958-518-3946</t>
+          <t>212-402-6451x6662</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kristinburgh</t>
+          <t>New Cindy</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-09-18</t>
+          <t>2012-07-17</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>422 Alex Knoll, East Kellyburgh, KS 45833</t>
+          <t>67490 Wilson Isle, Haleburgh, WI 17974</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-18</t>
+          <t>2024-02-14</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kristin Munoz</t>
+          <t>Rebekah Garcia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>elizabethlove@example.com</t>
+          <t>billydavis@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>518.881.6529x635</t>
+          <t>+1-792-868-8768x9422</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>584.357.7572</t>
+          <t>690.462.8923x63837</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Coxland</t>
+          <t>Lewisburgh</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-06-06</t>
+          <t>2012-04-24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>52003 Claudia Ways, South Stephaniehaven, AS 32993</t>
+          <t>1088 Corey Field Apt. 297, Mckeeville, OR 31396</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-04-29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Brianna Smith</t>
+          <t>Keith Gonzales</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>aguilarcynthia@example.net</t>
+          <t>millscharles@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(254)234-6134x9990</t>
+          <t>5054315657</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(864)256-7011x1603</t>
+          <t>5784634478</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Alexandrafort</t>
+          <t>Jonesmouth</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-05-20</t>
+          <t>2005-08-16</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>8393 Yvonne Flats Suite 701, North Rebeccatown, IL 94730</t>
+          <t>19825 Mitchell Drive Suite 399, Atkinsonfort, VI 78826</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-05-01</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Connecticut</t>
+          <t>California</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Melissa Cuevas</t>
+          <t>Lauren Phillips</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>noah72@example.net</t>
+          <t>nathansanders@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>001-667-556-6060x26104</t>
+          <t>275.850.3080</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>212-402-6451x6662</t>
+          <t>+1-501-825-9931</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Cindy</t>
+          <t>South Hannahmouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-07-17</t>
+          <t>2007-08-11</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>67490 Wilson Isle, Haleburgh, WI 17974</t>
+          <t>5440 Lauren Islands Apt. 046, Lisaland, VI 24044</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rebekah Garcia</t>
+          <t>Rebecca Francis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>billydavis@example.com</t>
+          <t>rodriguezangela@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+1-792-868-8768x9422</t>
+          <t>964.411.4566</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>690.462.8923x63837</t>
+          <t>+1-352-521-2030x15445</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lewisburgh</t>
+          <t>New Brent</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2012-04-24</t>
+          <t>2008-06-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1088 Corey Field Apt. 297, Mckeeville, OR 31396</t>
+          <t>426 Kevin Walks Suite 912, New Dennis, MS 19774</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-29</t>
+          <t>2024-02-03</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Keith Gonzales</t>
+          <t>Joel Smith</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>millscharles@example.net</t>
+          <t>matthew88@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5054315657</t>
+          <t>515-835-8152x857</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5784634478</t>
+          <t>869.308.2815</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Jonesmouth</t>
+          <t>Aprilberg</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2005-08-16</t>
+          <t>2007-06-24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>19825 Mitchell Drive Suite 399, Atkinsonfort, VI 78826</t>
+          <t>45232 David Field, Jaredberg, FL 22909</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-01-20</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>California</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lauren Phillips</t>
+          <t>Angela Baker</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nathansanders@example.org</t>
+          <t>qhansen@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>275.850.3080</t>
+          <t>561.720.8682x1803</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-501-825-9931</t>
+          <t>+1-876-230-4864x3997</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>South Hannahmouth</t>
+          <t>New Garyhaven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2007-08-11</t>
+          <t>2012-06-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5440 Lauren Islands Apt. 046, Lisaland, VI 24044</t>
+          <t>328 Patel Gateway Suite 658, East Aaron, PW 62967</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>South Dakota</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rebecca Francis</t>
+          <t>Jose Klein</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rodriguezangela@example.com</t>
+          <t>christopher78@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>964.411.4566</t>
+          <t>(564)794-3778x396</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-352-521-2030x15445</t>
+          <t>(805)872-5705x4733</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>New Brent</t>
+          <t>Luisview</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2008-06-15</t>
+          <t>2012-10-03</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>426 Kevin Walks Suite 912, New Dennis, MS 19774</t>
+          <t>409 Martha Points Suite 773, Kruegerchester, CT 40021</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-02-03</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,45 +618,45 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Joel Smith</t>
+          <t>Seth Gray</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>matthew88@example.org</t>
+          <t>farrelljeffrey@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>515-835-8152x857</t>
+          <t>381-458-4198x0645</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>869.308.2815</t>
+          <t>455-696-4435x30970</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aprilberg</t>
+          <t>Port Albert</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2007-06-24</t>
+          <t>2006-04-23</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>45232 David Field, Jaredberg, FL 22909</t>
+          <t>23372 Susan Unions, Webstertown, CT 10374</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angela Baker</t>
+          <t>Jesse Mcintyre</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qhansen@example.net</t>
+          <t>philipross@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>561.720.8682x1803</t>
+          <t>001-889-533-5091x357</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-876-230-4864x3997</t>
+          <t>+1-877-283-2465x75546</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Garyhaven</t>
+          <t>Reedton</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-06-09</t>
+          <t>2012-06-24</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>328 Patel Gateway Suite 658, East Aaron, PW 62967</t>
+          <t>0356 Juan Locks, South Sarahfort, IL 06930</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-02-13</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jose Klein</t>
+          <t>John Day</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>christopher78@example.org</t>
+          <t>mowens@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(564)794-3778x396</t>
+          <t>(803)618-3825x169</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(805)872-5705x4733</t>
+          <t>238-341-8843</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Luisview</t>
+          <t>Port Sarahberg</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2012-10-03</t>
+          <t>2009-07-24</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>409 Martha Points Suite 773, Kruegerchester, CT 40021</t>
+          <t>PSC 8282, Box 5048, APO AE 73646</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seth Gray</t>
+          <t>Jeffrey Cole</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>farrelljeffrey@example.org</t>
+          <t>thill@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>381-458-4198x0645</t>
+          <t>001-383-592-6740x200</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>455-696-4435x30970</t>
+          <t>213-530-8622</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Albert</t>
+          <t>Jacksonchester</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-04-23</t>
+          <t>2009-01-25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>23372 Susan Unions, Webstertown, CT 10374</t>
+          <t>01686 Shawn Highway, Peggyton, NC 35432</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-01-07</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angela Baker</t>
+          <t>Terry Lopez</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qhansen@example.net</t>
+          <t>avelazquez@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>561.720.8682x1803</t>
+          <t>(364)882-4156x67175</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-876-230-4864x3997</t>
+          <t>885-329-6306</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Garyhaven</t>
+          <t>Woodschester</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2012-06-09</t>
+          <t>2010-01-13</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>328 Patel Gateway Suite 658, East Aaron, PW 62967</t>
+          <t>10351 Marie Stravenue, Ricechester, KY 91177</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-09</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>South Dakota</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jose Klein</t>
+          <t>Deborah Brown</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>christopher78@example.org</t>
+          <t>crawfordalyssa@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(564)794-3778x396</t>
+          <t>001-715-492-0774x01846</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(805)872-5705x4733</t>
+          <t>(464)617-1175x36887</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Luisview</t>
+          <t>Danamouth</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2012-10-03</t>
+          <t>2009-10-07</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>409 Martha Points Suite 773, Kruegerchester, CT 40021</t>
+          <t>45916 Santiago Hollow Suite 853, Bakerville, MS 20946</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Vermont</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Seth Gray</t>
+          <t>Antonio Cox</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>farrelljeffrey@example.org</t>
+          <t>boydnicholas@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>381-458-4198x0645</t>
+          <t>2779148586</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>455-696-4435x30970</t>
+          <t>565.953.5255x42839</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Albert</t>
+          <t>Choiborough</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-04-23</t>
+          <t>2005-11-04</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>23372 Susan Unions, Webstertown, CT 10374</t>
+          <t>466 Hawkins Estate, Lake Jenniferhaven, CO 12017</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-20</t>
+          <t>2024-01-15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Kentucky</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Terry Lopez</t>
+          <t>Theresa Nelson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>avelazquez@example.org</t>
+          <t>andersonwilliam@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(364)882-4156x67175</t>
+          <t>561-230-2593x4893</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>885-329-6306</t>
+          <t>945.746.6096x083</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Woodschester</t>
+          <t>Cannonstad</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2010-01-13</t>
+          <t>2011-03-12</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10351 Marie Stravenue, Ricechester, KY 91177</t>
+          <t>PSC 5775, Box 7667, APO AP 36997</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-04-23</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Minnesota</t>
+          <t>Delaware</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Deborah Brown</t>
+          <t>John Griffin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>crawfordalyssa@example.net</t>
+          <t>meyerelizabeth@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-715-492-0774x01846</t>
+          <t>400.721.9423x39162</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(464)617-1175x36887</t>
+          <t>492-233-9362x644</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Danamouth</t>
+          <t>New Alexanderview</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-10-07</t>
+          <t>2011-06-08</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>45916 Santiago Hollow Suite 853, Bakerville, MS 20946</t>
+          <t>84642 Harrison Walk Apt. 867, Anthonyton, PA 84744</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-04-15</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Vermont</t>
+          <t>Illinois</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Antonio Cox</t>
+          <t>Jaime Barnett</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>boydnicholas@example.net</t>
+          <t>freychristina@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2779148586</t>
+          <t>+1-548-723-1240x444</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>565.953.5255x42839</t>
+          <t>988-530-4639x8181</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Choiborough</t>
+          <t>East Rebeccaborough</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2005-11-04</t>
+          <t>2005-12-14</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>466 Hawkins Estate, Lake Jenniferhaven, CO 12017</t>
+          <t>500 Mark Mountain Suite 311, Rosschester, FL 76433</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-31</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Kentucky</t>
+          <t>Colorado</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Theresa Nelson</t>
+          <t>Benjamin Mitchell</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>andersonwilliam@example.com</t>
+          <t>rachelerickson@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>561-230-2593x4893</t>
+          <t>+1-646-773-7154</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>945.746.6096x083</t>
+          <t>9683081907</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cannonstad</t>
+          <t>Amyfurt</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2011-03-12</t>
+          <t>2005-08-19</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PSC 5775, Box 7667, APO AP 36997</t>
+          <t>05757 Weaver Spurs, Javierbury, GA 57721</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-23</t>
+          <t>2024-01-21</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Delaware</t>
+          <t>Wyoming</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,50 +558,50 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>John Griffin</t>
+          <t>Meagan Ellis</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>meyerelizabeth@example.net</t>
+          <t>howellcynthia@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>400.721.9423x39162</t>
+          <t>001-261-502-7812</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>492-233-9362x644</t>
+          <t>4095279183</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>New Alexanderview</t>
+          <t>Tiffanystad</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2011-06-08</t>
+          <t>2013-07-17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>84642 Harrison Walk Apt. 867, Anthonyton, PA 84744</t>
+          <t>5457 Cook Stravenue, Phillipsville, IA 88233</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-15</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jaime Barnett</t>
+          <t>Amanda Gibson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>freychristina@example.com</t>
+          <t>underwoodstacy@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-548-723-1240x444</t>
+          <t>484.415.9756x3077</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>988-530-4639x8181</t>
+          <t>438-805-2586</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>East Rebeccaborough</t>
+          <t>West Randy</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2005-12-14</t>
+          <t>2013-09-27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>500 Mark Mountain Suite 311, Rosschester, FL 76433</t>
+          <t>86970 Jesse Crossroad, Heatherview, LA 86611</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Colorado</t>
+          <t>New Jersey</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Benjamin Mitchell</t>
+          <t>Jesse Henderson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rachelerickson@example.net</t>
+          <t>amy08@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+1-646-773-7154</t>
+          <t>252.370.5765x9419</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9683081907</t>
+          <t>989-625-4898x638</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Amyfurt</t>
+          <t>Tiffanyhaven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2005-08-19</t>
+          <t>2005-11-13</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>05757 Weaver Spurs, Javierbury, GA 57721</t>
+          <t>645 Jason Brook Apt. 419, Amandaview, OH 57078</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-04-10</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Wyoming</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Meagan Ellis</t>
+          <t>Nancy Kemp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>howellcynthia@example.org</t>
+          <t>andersonchelsea@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-261-502-7812</t>
+          <t>394-213-0902x8270</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4095279183</t>
+          <t>+1-546-426-1203x789</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tiffanystad</t>
+          <t>East William</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2013-07-17</t>
+          <t>2009-09-28</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5457 Cook Stravenue, Phillipsville, IA 88233</t>
+          <t>510 Martinez Place, Dianahaven, CT 80139</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-04-22</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Illinois</t>
+          <t>Alabama</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Amanda Gibson</t>
+          <t>Eddie Weaver</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>underwoodstacy@example.com</t>
+          <t>melissamunoz@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>484.415.9756x3077</t>
+          <t>001-734-610-2197</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>438-805-2586</t>
+          <t>523-616-0657x183</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>West Randy</t>
+          <t>East Crystal</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-09-27</t>
+          <t>2012-07-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>86970 Jesse Crossroad, Heatherview, LA 86611</t>
+          <t>7660 Espinoza Islands, Parkerborough, WA 52190</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-02-15</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>New Jersey</t>
+          <t>Oregon</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jesse Henderson</t>
+          <t>David Stephens</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>amy08@example.net</t>
+          <t>shafferjoe@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>252.370.5765x9419</t>
+          <t>706-237-1949x957</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>989-625-4898x638</t>
+          <t>655-893-1101x995</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Tiffanyhaven</t>
+          <t>Ashleymouth</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2005-11-13</t>
+          <t>2006-06-07</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>645 Jason Brook Apt. 419, Amandaview, OH 57078</t>
+          <t>Unit 6163 Box 6282, DPO AA 65433</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-10</t>
+          <t>2024-01-01</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nancy Kemp</t>
+          <t>Eric Evans</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>andersonchelsea@example.com</t>
+          <t>christopher16@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>394-213-0902x8270</t>
+          <t>(345)799-4120</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-546-426-1203x789</t>
+          <t>+1-583-400-2573x754</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>East William</t>
+          <t>Lake Andrew</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-09-28</t>
+          <t>2009-02-15</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>510 Martinez Place, Dianahaven, CT 80139</t>
+          <t>17247 King Junctions Suite 463, East Williammouth, PW 79538</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-22</t>
+          <t>2024-04-14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Alabama</t>
+          <t>Texas</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eddie Weaver</t>
+          <t>Shari Harris</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>melissamunoz@example.net</t>
+          <t>taylordean@example.com</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001-734-610-2197</t>
+          <t>(221)787-6478</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>523-616-0657x183</t>
+          <t>542-546-8020x023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>East Crystal</t>
+          <t>Port Jessica</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-07-03</t>
+          <t>2013-11-03</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>7660 Espinoza Islands, Parkerborough, WA 52190</t>
+          <t>838 Aguilar Roads, Justintown, MA 65352</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-04-03</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oregon</t>
+          <t>Oklahoma</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>David Stephens</t>
+          <t>Timothy Sanders</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>shafferjoe@example.com</t>
+          <t>festes@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>706-237-1949x957</t>
+          <t>709.460.2962x62740</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>655-893-1101x995</t>
+          <t>(705)701-7690</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ashleymouth</t>
+          <t>New Alexandrabury</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2006-06-07</t>
+          <t>2009-10-08</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Unit 6163 Box 6282, DPO AA 65433</t>
+          <t>5672 Crawford Mountain, South Craig, MI 21666</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-02-29</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Ohio</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eric Evans</t>
+          <t>Elizabeth Grimes</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>christopher16@example.net</t>
+          <t>hmorgan@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(345)799-4120</t>
+          <t>001-292-364-3623x253</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-583-400-2573x754</t>
+          <t>(692)959-0902x90584</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lake Andrew</t>
+          <t>Lake Carrieview</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-02-15</t>
+          <t>2009-05-20</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>17247 King Junctions Suite 463, East Williammouth, PW 79538</t>
+          <t>1243 Small Extension, Randyside, OH 68369</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-04-14</t>
+          <t>2024-01-29</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Texas</t>
+          <t>Hawaii</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Shari Harris</t>
+          <t>Grace Stein</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>taylordean@example.com</t>
+          <t>molly32@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(221)787-6478</t>
+          <t>+1-601-651-3731</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>542-546-8020x023</t>
+          <t>(378)918-5596x86197</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Port Jessica</t>
+          <t>Lisaland</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2013-11-03</t>
+          <t>2006-08-10</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>838 Aguilar Roads, Justintown, MA 65352</t>
+          <t>PSC 4960, Box 0949, APO AP 53948</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-04-03</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Oklahoma</t>
+          <t>Mississippi</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Timothy Sanders</t>
+          <t>Angela Matthews</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>festes@example.org</t>
+          <t>clinejessica@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>709.460.2962x62740</t>
+          <t>(973)955-8656x8753</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(705)701-7690</t>
+          <t>+1-837-393-7816</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>New Alexandrabury</t>
+          <t>Jennifertown</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2009-10-08</t>
+          <t>2010-03-31</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>5672 Crawford Mountain, South Craig, MI 21666</t>
+          <t>16326 Owens Fall, North Ericfort, NY 88512</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-01-06</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Ohio</t>
+          <t>Idaho</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Elizabeth Grimes</t>
+          <t>Robert Smith</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hmorgan@example.net</t>
+          <t>hannah83@example.net</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-292-364-3623x253</t>
+          <t>256-824-5389x6225</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(692)959-0902x90584</t>
+          <t>9767949579</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Lake Carrieview</t>
+          <t>North Eric</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2009-05-20</t>
+          <t>2011-03-26</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1243 Small Extension, Randyside, OH 68369</t>
+          <t>735 Monique Summit Apt. 111, Danaborough, WA 36378</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-05-12</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Hawaii</t>
+          <t>Maine</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Grace Stein</t>
+          <t>Elizabeth Craig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>molly32@example.org</t>
+          <t>pamelaboone@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+1-601-651-3731</t>
+          <t>(403)442-2458x026</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(378)918-5596x86197</t>
+          <t>323-570-8212x87340</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Lisaland</t>
+          <t>Harriston</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-08-10</t>
+          <t>2012-05-25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>PSC 4960, Box 0949, APO AP 53948</t>
+          <t>375 Timothy Fields Suite 396, East Eric, TX 28157</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-05-05</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Mississippi</t>
+          <t>Alaska</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Angela Matthews</t>
+          <t>Lisa White</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>clinejessica@example.org</t>
+          <t>rachelcopeland@example.com</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(973)955-8656x8753</t>
+          <t>+1-850-985-4880x5059</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1-837-393-7816</t>
+          <t>580.766.6504x18211</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Jennifertown</t>
+          <t>Sancheztown</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2010-03-31</t>
+          <t>2013-11-05</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16326 Owens Fall, North Ericfort, NY 88512</t>
+          <t>9651 Julie Glens, New Erin, WI 21351</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-06</t>
+          <t>2024-01-24</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Idaho</t>
+          <t>Maryland</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,55 +558,55 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Robert Smith</t>
+          <t>Bryan Larson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>hannah83@example.net</t>
+          <t>waltermichael@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>256-824-5389x6225</t>
+          <t>001-725-321-2467x0153</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9767949579</t>
+          <t>(727)597-4050x23173</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>North Eric</t>
+          <t>Port William</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2011-03-26</t>
+          <t>2007-07-17</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>735 Monique Summit Apt. 111, Danaborough, WA 36378</t>
+          <t>1043 Wise Trail, Hortonburgh, FM 55732</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-05-12</t>
+          <t>2024-01-09</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Maine</t>
+          <t>Missouri</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elizabeth Craig</t>
+          <t>Edward Cook</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pamelaboone@example.org</t>
+          <t>matthew77@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(403)442-2458x026</t>
+          <t>001-880-510-6930</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>323-570-8212x87340</t>
+          <t>339.479.2643x938</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Harriston</t>
+          <t>Hillview</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-05-25</t>
+          <t>2012-04-22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>375 Timothy Fields Suite 396, East Eric, TX 28157</t>
+          <t>Unit 2912 Box 9879, DPO AE 32503</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-05-05</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Alaska</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,31 +498,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Lisa White</t>
+          <t>William Benson</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rachelcopeland@example.com</t>
+          <t>timothy53@example.org</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+1-850-985-4880x5059</t>
+          <t>(398)746-4778x101</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>580.766.6504x18211</t>
+          <t>(708)242-2470x90307</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sancheztown</t>
+          <t>Port Toddburgh</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -531,22 +531,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2013-11-05</t>
+          <t>2010-11-14</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>9651 Julie Glens, New Erin, WI 21351</t>
+          <t>66260 Collins Stravenue Apt. 591, Delacruzport, AL 01822</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-04-16</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Maryland</t>
+          <t>Louisiana</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bryan Larson</t>
+          <t>Nancy Ward</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>waltermichael@example.org</t>
+          <t>sotoruth@example.com</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-725-321-2467x0153</t>
+          <t>001-891-226-5923x5949</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>(727)597-4050x23173</t>
+          <t>+1-265-615-2041</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port William</t>
+          <t>Port Curtis</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2007-07-17</t>
+          <t>2006-04-19</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1043 Wise Trail, Hortonburgh, FM 55732</t>
+          <t>6290 Gardner Bridge Apt. 750, North Amber, SD 75760</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Missouri</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,31 +618,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Edward Cook</t>
+          <t>Barbara Robinson</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>matthew77@example.org</t>
+          <t>moralescourtney@example.org</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001-880-510-6930</t>
+          <t>411-827-0404x519</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>339.479.2643x938</t>
+          <t>+1-784-948-4716x863</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hillview</t>
+          <t>New Michael</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -651,22 +651,22 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2012-04-22</t>
+          <t>2006-03-27</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Unit 2912 Box 9879, DPO AE 32503</t>
+          <t>9726 Nicholas Center Apt. 977, Ricefort, ND 24691</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-01-19</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Kansas</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">

--- a/student_information.xlsx
+++ b/student_information.xlsx
@@ -498,55 +498,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>William Benson</t>
+          <t>Lisa Morales</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>timothy53@example.org</t>
+          <t>hannah60@example.net</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(398)746-4778x101</t>
+          <t>+1-632-420-9009x5725</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>(708)242-2470x90307</t>
+          <t>001-736-226-6352x7621</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Port Toddburgh</t>
+          <t>Wadefort</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2010-11-14</t>
+          <t>2006-04-16</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>66260 Collins Stravenue Apt. 591, Delacruzport, AL 01822</t>
+          <t>PSC 7170, Box 0140, APO AP 96994</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-04-16</t>
+          <t>2024-02-21</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Louisiana</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -558,31 +558,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Nancy Ward</t>
+          <t>John Choi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>sotoruth@example.com</t>
+          <t>derek83@example.org</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>001-891-226-5923x5949</t>
+          <t>848.511.2599x2775</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>+1-265-615-2041</t>
+          <t>791-647-0156</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Port Curtis</t>
+          <t>Lake Adrienne</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -591,22 +591,22 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2006-04-19</t>
+          <t>2007-10-16</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>6290 Gardner Bridge Apt. 750, North Amber, SD 75760</t>
+          <t>Unit 7949 Box 9223, DPO AE 23151</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-01-08</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Nebraska</t>
+          <t>West Virginia</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -618,55 +618,55 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Barbara Robinson</t>
+          <t>James Ballard</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>moralescourtney@example.org</t>
+          <t>juliaandrews@example.net</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>411-827-0404x519</t>
+          <t>524-642-2060x5777</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1-784-948-4716x863</t>
+          <t>+1-536-391-4311x18179</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>New Michael</t>
+          <t>Lake Robert</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2006-03-27</t>
+          <t>2010-07-20</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9726 Nicholas Center Apt. 977, Ricefort, ND 24691</t>
+          <t>00240 Anthony Club, Williamsview, IL 56261</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Kansas</t>
+          <t>Nebraska</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
